--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.06781033333333</v>
+        <v>8.107822000000001</v>
       </c>
       <c r="H2">
-        <v>75.20343099999999</v>
+        <v>24.323466</v>
       </c>
       <c r="I2">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="J2">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.10446833333333</v>
+        <v>53.457377</v>
       </c>
       <c r="N2">
-        <v>102.313405</v>
+        <v>160.372131</v>
       </c>
       <c r="O2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="P2">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="Q2">
-        <v>854.9243436991726</v>
+        <v>433.4228973028941</v>
       </c>
       <c r="R2">
-        <v>7694.319093292554</v>
+        <v>3900.806075726046</v>
       </c>
       <c r="S2">
-        <v>0.3741349202648154</v>
+        <v>0.2907577468095601</v>
       </c>
       <c r="T2">
-        <v>0.3741349202648154</v>
+        <v>0.2907577468095601</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.06781033333333</v>
+        <v>8.107822000000001</v>
       </c>
       <c r="H3">
-        <v>75.20343099999999</v>
+        <v>24.323466</v>
       </c>
       <c r="I3">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="J3">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>93.25067100000001</v>
       </c>
       <c r="O3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="P3">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="Q3">
-        <v>779.1967113613556</v>
+        <v>252.019947282854</v>
       </c>
       <c r="R3">
-        <v>7012.770402252201</v>
+        <v>2268.179525545686</v>
       </c>
       <c r="S3">
-        <v>0.3409947343578834</v>
+        <v>0.1690652535410881</v>
       </c>
       <c r="T3">
-        <v>0.3409947343578835</v>
+        <v>0.1690652535410881</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.06781033333333</v>
+        <v>8.107822000000001</v>
       </c>
       <c r="H4">
-        <v>75.20343099999999</v>
+        <v>24.323466</v>
       </c>
       <c r="I4">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="J4">
-        <v>0.7308832858982242</v>
+        <v>0.4676336537051783</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>4.308092</v>
       </c>
       <c r="O4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="P4">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="Q4">
-        <v>35.99814438485022</v>
+        <v>11.64308103187467</v>
       </c>
       <c r="R4">
-        <v>323.983299463652</v>
+        <v>104.787729286872</v>
       </c>
       <c r="S4">
-        <v>0.01575363127552533</v>
+        <v>0.007810653354530105</v>
       </c>
       <c r="T4">
-        <v>0.01575363127552533</v>
+        <v>0.007810653354530104</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.679154</v>
       </c>
       <c r="I5">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="J5">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.10446833333333</v>
+        <v>53.457377</v>
       </c>
       <c r="N5">
-        <v>102.313405</v>
+        <v>160.372131</v>
       </c>
       <c r="O5">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="P5">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="Q5">
-        <v>30.45704091770777</v>
+        <v>47.74018180635266</v>
       </c>
       <c r="R5">
-        <v>274.1133682593699</v>
+        <v>429.6616362571739</v>
       </c>
       <c r="S5">
-        <v>0.01332871459238557</v>
+        <v>0.03202605995361928</v>
       </c>
       <c r="T5">
-        <v>0.01332871459238557</v>
+        <v>0.03202605995361928</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.679154</v>
       </c>
       <c r="I6">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="J6">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>93.25067100000001</v>
       </c>
       <c r="O6">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="P6">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="Q6">
         <v>27.75921202359266</v>
@@ -818,10 +818,10 @@
         <v>249.832908212334</v>
       </c>
       <c r="S6">
-        <v>0.0121480814689673</v>
+        <v>0.01862201095376869</v>
       </c>
       <c r="T6">
-        <v>0.0121480814689673</v>
+        <v>0.01862201095376869</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.679154</v>
       </c>
       <c r="I7">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="J7">
-        <v>0.02603802583086097</v>
+        <v>0.05150839004025344</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>4.308092</v>
       </c>
       <c r="O7">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="P7">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="Q7">
         <v>1.282449101574222</v>
@@ -880,10 +880,10 @@
         <v>11.542041914168</v>
       </c>
       <c r="S7">
-        <v>0.0005612297695081064</v>
+        <v>0.0008603191328654702</v>
       </c>
       <c r="T7">
-        <v>0.0005612297695081063</v>
+        <v>0.0008603191328654702</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>25.011314</v>
       </c>
       <c r="I8">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545683</v>
       </c>
       <c r="J8">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.10446833333333</v>
+        <v>53.457377</v>
       </c>
       <c r="N8">
-        <v>102.313405</v>
+        <v>160.372131</v>
       </c>
       <c r="O8">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="P8">
-        <v>0.5118942073015388</v>
+        <v>0.6217639481372091</v>
       </c>
       <c r="Q8">
-        <v>284.3325220960189</v>
+        <v>445.6797472544594</v>
       </c>
       <c r="R8">
-        <v>2558.99269886417</v>
+        <v>4011.117725290134</v>
       </c>
       <c r="S8">
-        <v>0.1244305724443378</v>
+        <v>0.2989801413740298</v>
       </c>
       <c r="T8">
-        <v>0.1244305724443378</v>
+        <v>0.2989801413740297</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>25.011314</v>
       </c>
       <c r="I9">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545683</v>
       </c>
       <c r="J9">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>93.25067100000001</v>
       </c>
       <c r="O9">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="P9">
-        <v>0.4665515560925922</v>
+        <v>0.3615335470438062</v>
       </c>
       <c r="Q9">
         <v>259.1468681212993</v>
@@ -1004,10 +1004,10 @@
         <v>2332.321813091694</v>
       </c>
       <c r="S9">
-        <v>0.1134087402657415</v>
+        <v>0.1738462825489495</v>
       </c>
       <c r="T9">
-        <v>0.1134087402657415</v>
+        <v>0.1738462825489495</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>25.011314</v>
       </c>
       <c r="I10">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545683</v>
       </c>
       <c r="J10">
-        <v>0.2430786882709149</v>
+        <v>0.4808579562545682</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>4.308092</v>
       </c>
       <c r="O10">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="P10">
-        <v>0.02155423660586901</v>
+        <v>0.01670250481898457</v>
       </c>
       <c r="Q10">
         <v>11.97233797254311</v>
@@ -1066,10 +1066,10 @@
         <v>107.751041752888</v>
       </c>
       <c r="S10">
-        <v>0.005239375560835576</v>
+        <v>0.008031532331589</v>
       </c>
       <c r="T10">
-        <v>0.005239375560835575</v>
+        <v>0.008031532331589</v>
       </c>
     </row>
   </sheetData>
